--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T06:49:20+00:00</t>
+    <t>2022-09-07T08:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:56:04+00:00</t>
+    <t>2022-09-07T09:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:25:06+00:00</t>
+    <t>2022-09-07T10:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="344">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -292,7 +292,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -976,6 +976,10 @@
   </si>
   <si>
     <t>DiagnosticReport.media.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4439,13 +4443,13 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>297</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4496,7 +4500,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4517,7 +4521,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -4525,7 +4529,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4554,7 +4558,7 @@
         <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>137</v>
@@ -4607,7 +4611,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4628,7 +4632,7 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4636,11 +4640,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4662,10 +4666,10 @@
         <v>134</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>137</v>
@@ -4720,7 +4724,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4749,7 +4753,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4772,19 +4776,19 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>297</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -4833,7 +4837,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4854,7 +4858,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4862,7 +4866,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4885,16 +4889,16 @@
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4944,7 +4948,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>88</v>
@@ -4965,7 +4969,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4973,11 +4977,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4996,19 +5000,19 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>297</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5057,7 +5061,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5075,10 +5079,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5086,7 +5090,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5112,13 +5116,13 @@
         <v>180</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5147,10 +5151,10 @@
         <v>184</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -5168,7 +5172,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5186,10 +5190,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5197,7 +5201,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5220,19 +5224,19 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5281,7 +5285,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5299,10 +5303,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="342">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -653,19 +653,7 @@
     <t>【JP Core仕様】[画像診断レポート交換手順ガイドライン](https://www.jira-net.or.jp/publishing/files/jesra/JESRA_TR-0042_2018.pdf)「5.1 レポート種別コード」に記載されているLOINCコード [Diagnostic imaging study](https://loinc.org/18748-4/) を指定。コードを指定できない場合はCodeableConceptを使用せずテキスト等を直接コーディングすることも許容されるが、要素間の調整と事前・事後の内容の整合性確保のために独自の構造を提供する必要があるので留意すること。</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="18748-4"/&gt;
-    &lt;display value="Diagnostic imaging study"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_DiagnosticReportRadiologyCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1483,7 +1471,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.15234375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3110,10 +3098,10 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R15" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="R15" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>79</v>
@@ -3221,7 +3209,7 @@
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>79</v>
@@ -3241,11 +3229,9 @@
       <c r="W16" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="X16" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
@@ -3278,25 +3264,25 @@
         <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3315,19 +3301,19 @@
         <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -3376,7 +3362,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3391,25 +3377,25 @@
         <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3428,19 +3414,19 @@
         <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -3489,7 +3475,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3504,25 +3490,25 @@
         <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>228</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3541,19 +3527,19 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -3602,7 +3588,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3617,25 +3603,25 @@
         <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3654,19 +3640,19 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -3715,7 +3701,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3733,22 +3719,22 @@
         <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>249</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3767,19 +3753,19 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -3828,7 +3814,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3843,25 +3829,25 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3880,19 +3866,19 @@
         <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="N22" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -3941,7 +3927,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3956,21 +3942,21 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AK22" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AM22" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3993,19 +3979,19 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="M23" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4054,7 +4040,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4072,10 +4058,10 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4083,11 +4069,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4106,19 +4092,19 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4167,7 +4153,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4185,10 +4171,10 @@
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4196,7 +4182,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4219,16 +4205,16 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4278,7 +4264,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4299,7 +4285,7 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4307,11 +4293,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4330,19 +4316,19 @@
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4391,7 +4377,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4409,10 +4395,10 @@
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4420,7 +4406,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4443,13 +4429,13 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4500,7 +4486,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4521,7 +4507,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -4529,7 +4515,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4558,7 +4544,7 @@
         <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>137</v>
@@ -4611,7 +4597,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4632,7 +4618,7 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4640,11 +4626,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4666,10 +4652,10 @@
         <v>134</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>137</v>
@@ -4724,7 +4710,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4753,7 +4739,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4776,19 +4762,19 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -4837,7 +4823,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4858,7 +4844,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4866,7 +4852,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4889,16 +4875,16 @@
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4948,7 +4934,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>88</v>
@@ -4969,7 +4955,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4977,11 +4963,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5000,19 +4986,19 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5061,7 +5047,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5079,10 +5065,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5090,7 +5076,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5116,13 +5102,13 @@
         <v>180</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5151,10 +5137,10 @@
         <v>184</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -5172,7 +5158,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5190,10 +5176,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5201,7 +5187,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5224,19 +5210,19 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5285,7 +5271,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5303,10 +5289,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$39</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="371">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T21:58:47+00:00</t>
+    <t>2022-09-14T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,7 +259,7 @@
     <t/>
   </si>
   <si>
-    <t>診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP Core仕様】画像結果レポートのプロフィール</t>
+    <t>診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP Core仕様】画像結果レポートのプロフィール。【詳細参照】</t>
   </si>
   <si>
     <t>患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。
@@ -386,7 +386,7 @@
 </t>
   </si>
   <si>
-    <t>人が読める形式で提示された情報。放射線レポートの場合はレポートの所見が保持される。</t>
+    <t>人が読める形式で提示された情報。放射線レポートの場合はレポートの所見が保持される。【詳細参照】</t>
   </si>
   <si>
     <t>リソースの概要を含み、リソースの内容を人間が解釈できる形で表現するために用いられる。すべての構造化データをエンコードする必要はないが、人間がテキストを読むだけで「臨床的に安全」になるように十分な詳細を含める必要がある。リソース定義は、臨床的安全性を確保するために、テキストの中でどのコンテンツを表現すべきかを定義することができる。放射線レポートでは少なくともレポートの所見が格納されることが期待される。また，検索可能な文字列が存在する部位としても利用されることを想定している。</t>
@@ -481,7 +481,7 @@
 </t>
   </si>
   <si>
-    <t>レポートを識別するビジネス識別子</t>
+    <t>レポートを識別するビジネス識別子。【詳細参照】</t>
   </si>
   <si>
     <t>実行者または他のシステムによってこのレポートに割り当てられた識別子。</t>
@@ -518,10 +518,10 @@
 </t>
   </si>
   <si>
+    <t>レポート作成サービスに対する要求の詳細。【詳細参照】</t>
+  </si>
+  <si>
     <t>検査や診断の依頼の元になったもの。通常はServiceRequestあるいはCarePlan（治験や抗がん剤投与等により検査を行うことが必須の場合、根拠となった事象を追記することは制限しない）</t>
-  </si>
-  <si>
-    <t>レポート作成サービスに対する要求の詳細</t>
   </si>
   <si>
     <t>通常は１つのリクエストに対し１つの検査結果となるが、状況によって１つのリクエストに対し複数の検査結果が要求され、複数のレポートが作成される場合もあるので注意すること。
@@ -543,7 +543,7 @@
     <t>DiagnosticReport.status</t>
   </si>
   <si>
-    <t>registered | partial | preliminary | final +</t>
+    <t>診断レポートの状態。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートの状態</t>
@@ -589,7 +589,7 @@
 </t>
   </si>
   <si>
-    <t>サービスカテゴリー</t>
+    <t>レポートを作成した分野を分類するコード。【詳細参照】</t>
   </si>
   <si>
     <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。【JP-Core仕様】放射線レポートは ”RAD” をデフォルトとして設定。追加の情報については任意で設定可能。</t>
@@ -624,6 +624,9 @@
   </si>
   <si>
     <t>radiology</t>
+  </si>
+  <si>
+    <t>サービスカテゴリー。【詳細参照】</t>
   </si>
   <si>
     <t>レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、MRIなど）を分類するコード。これは、検索、並べ替え、および表示の目的で使用される。</t>
@@ -644,7 +647,7 @@
 </t>
   </si>
   <si>
-    <t>この診断レポートの名前/コード</t>
+    <t>この診断レポートの名前/コード。【詳細参照】</t>
   </si>
   <si>
     <t>この診断レポートを表現するコードや名称</t>
@@ -653,7 +656,10 @@
     <t>【JP Core仕様】[画像診断レポート交換手順ガイドライン](https://www.jira-net.or.jp/publishing/files/jesra/JESRA_TR-0042_2018.pdf)「5.1 レポート種別コード」に記載されているLOINCコード [Diagnostic imaging study](https://loinc.org/18748-4/) を指定。コードを指定できない場合はCodeableConceptを使用せずテキスト等を直接コーディングすることも許容されるが、要素間の調整と事前・事後の内容の整合性確保のために独自の構造を提供する必要があるので留意すること。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_DiagnosticReportRadiologyCode_VS</t>
+    <t>Codes that describe Diagnostic Reports.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -666,6 +672,112 @@
   </si>
   <si>
     <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>radiologyReportCode</t>
+  </si>
+  <si>
+    <t>放射線レポート項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。【詳細参照】</t>
+  </si>
+  <si>
+    <t>放射線レポート項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。</t>
+  </si>
+  <si>
+    <t>推奨コードは必須ではない、派生先によるコード体系を作成し割り振ることを否定しない</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="18748-4"/&gt;
+  &lt;display value="Diagnostic imaging study"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>DiagnosticReport.subject</t>
@@ -679,7 +791,7 @@
 </t>
   </si>
   <si>
-    <t>レポートの対象、常にではないが、通常は患者</t>
+    <t>レポートの対象、常にではないが、通常は患者。【詳細参照】</t>
   </si>
   <si>
     <t>レポートの対象。 必ずでは無いが、通常、これには「患者」が該当する。</t>
@@ -715,7 +827,7 @@
 </t>
   </si>
   <si>
-    <t>依頼時におけるヘルスケアイベント（受診など）</t>
+    <t>依頼時におけるヘルスケアイベント（受診など）。【詳細参照】</t>
   </si>
   <si>
     <t>この診断レポートが関するヘルスケアイベント。</t>
@@ -751,7 +863,7 @@
 </t>
   </si>
   <si>
-    <t>臨床的に関連する時刻または時間</t>
+    <t>臨床的に関連する時刻または時間。【詳細参照】</t>
   </si>
   <si>
     <t>観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、読影開始の時間であり、日付/時刻自体のみが提供される。</t>
@@ -788,7 +900,7 @@
 </t>
   </si>
   <si>
-    <t>このバージョンが作成された日時</t>
+    <t>このバージョンが作成された日時。【詳細参照】</t>
   </si>
   <si>
     <t>このバージョンのレポートがプロバイダーに提供された日時。通常、レポートがレビューおよび検証された後になる。</t>
@@ -821,7 +933,7 @@
 </t>
   </si>
   <si>
-    <t>レポート内容に責任をもつ診断的サービス</t>
+    <t>レポート内容に責任をもつ診断的サービス。【詳細参照】</t>
   </si>
   <si>
     <t>レポートの発行を担当するもの。</t>
@@ -854,7 +966,7 @@
 Reported by</t>
   </si>
   <si>
-    <t>結果の一次解釈者</t>
+    <t>結果の一次解釈者。【詳細参照】</t>
   </si>
   <si>
     <t>レポートの結論や読影に関わる医師や組織</t>
@@ -875,10 +987,14 @@
   </si>
   <si>
     <t>【JP Core仕様】未使用
+・画像ガイド下生検で得られる検体の可能性は有り得るが、放射線レポートでは特には規定しない【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの対象となる検体</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】未使用
 ・画像ガイド下生検で得られる検体の可能性は有り得るが、本項目は病理レポートで利用されることを想定し、放射線レポートでは特には規定しない</t>
-  </si>
-  <si>
-    <t>診断レポートの対象となる検体</t>
   </si>
   <si>
     <t>レポートの対象となる取集された検体についての情報をレポートできる必要がある。</t>
@@ -901,7 +1017,7 @@
     <t>【JP Core仕様】計測情報などの付随所見をObservationリソースとして定義できるが、該当するコードが定義できないため放射線レポートでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。</t>
   </si>
   <si>
-    <t>診断レポートの一部となるObservationリソース</t>
+    <t>診断レポートの一部となるObservationリソース【詳細参照】</t>
   </si>
   <si>
     <t>Observationはさらにobservationを含むことができる。
@@ -924,7 +1040,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照</t>
+    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照。【詳細参照】</t>
   </si>
   <si>
     <t>実行された画像検査の完全な詳細に関する1つあるいは複数のリンク。通常、これは DICOM対応モダリティによって実行されるイメージングだが、DICOMであることが必須ではない。完全に有効な PACS ビューアは、この情報を使用してソース イメージのビューを提供できる。</t>
@@ -948,7 +1064,7 @@
 </t>
   </si>
   <si>
-    <t>このレポートに関連づけられたキー画像</t>
+    <t>このレポートに関連づけられたキー画像。【詳細参照】</t>
   </si>
   <si>
     <t>このレポートに関連付けられているキーイメージの一覧。</t>
@@ -966,29 +1082,7 @@
     <t>DiagnosticReport.media.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DiagnosticReport.media.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.media.modifierExtension</t>
@@ -1054,7 +1148,7 @@
 </t>
   </si>
   <si>
-    <t>検査結果の臨床的結論（解釈）</t>
+    <t>検査結果の臨床的結論（解釈）。【詳細参照】</t>
   </si>
   <si>
     <t>診断報告書の簡潔かつ臨床的に文脈化された要約結論(interpretation/impression)</t>
@@ -1076,7 +1170,7 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>検査結果の臨床的結論（解釈）用のコード</t>
+    <t>検査結果の臨床的結論（解釈）用のコード。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートの要約の結論 (interpretation/impression) を表す 1 つ以上のコード。</t>
@@ -1103,7 +1197,7 @@
 </t>
   </si>
   <si>
-    <t>発行されたレポート全体</t>
+    <t>発行されたレポート全体。【詳細参照】</t>
   </si>
   <si>
     <t>診断サービスによって発行された結果全体のリッチ テキスト表現。複数の形式は許可されるが、意味的に等価である必要がある。</t>
@@ -1438,7 +1532,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1448,7 +1542,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.44921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1471,10 +1565,10 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.15234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2719,7 +2813,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>156</v>
       </c>
@@ -2735,7 +2829,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -2961,7 +3055,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -3084,10 +3178,10 @@
         <v>180</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>183</v>
@@ -3101,7 +3195,7 @@
         <v>79</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>79</v>
@@ -3169,11 +3263,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3195,13 +3289,13 @@
         <v>180</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3229,9 +3323,11 @@
       <c r="W16" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="X16" s="2"/>
+      <c r="X16" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
@@ -3249,7 +3345,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>88</v>
@@ -3264,25 +3360,25 @@
         <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3292,29 +3388,25 @@
         <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M17" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3362,7 +3454,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3374,35 +3466,35 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -3411,23 +3503,21 @@
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3463,59 +3553,59 @@
         <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
@@ -3527,19 +3617,19 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -3576,25 +3666,23 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
@@ -3603,25 +3691,27 @@
         <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="C20" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3631,7 +3721,7 @@
         <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -3640,19 +3730,19 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -3662,7 +3752,7 @@
         <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>79</v>
@@ -3701,13 +3791,13 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -3719,29 +3809,29 @@
         <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -3753,19 +3843,19 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -3814,13 +3904,13 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -3829,35 +3919,35 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -3866,19 +3956,19 @@
         <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -3927,13 +4017,13 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -3942,32 +4032,32 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -3976,22 +4066,22 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4040,13 +4130,13 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -4055,56 +4145,56 @@
         <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4153,13 +4243,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4168,32 +4258,32 @@
         <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>89</v>
@@ -4202,21 +4292,23 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4264,13 +4356,13 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -4282,22 +4374,22 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4307,7 +4399,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4316,19 +4408,19 @@
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4377,7 +4469,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4392,44 +4484,44 @@
         <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>294</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>296</v>
@@ -4437,8 +4529,12 @@
       <c r="L27" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4486,31 +4582,31 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -4519,7 +4615,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4538,18 +4634,20 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>135</v>
+        <v>302</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -4597,7 +4695,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4609,16 +4707,16 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4626,11 +4724,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4643,25 +4741,25 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>137</v>
+        <v>312</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>143</v>
+        <v>313</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -4722,24 +4820,24 @@
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4750,10 +4848,10 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -4762,20 +4860,18 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -4823,13 +4919,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -4844,29 +4940,29 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -4875,18 +4971,20 @@
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
@@ -4934,13 +5032,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -4952,22 +5050,22 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4977,7 +5075,7 @@
         <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -4986,20 +5084,16 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>322</v>
+        <v>209</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5047,7 +5141,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>320</v>
+        <v>211</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5059,16 +5153,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>327</v>
+        <v>212</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5076,11 +5170,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5099,16 +5193,16 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>329</v>
+        <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>330</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>331</v>
+        <v>137</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5134,13 +5228,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -5158,7 +5252,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>328</v>
+        <v>217</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5170,28 +5264,28 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>334</v>
+        <v>212</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5201,28 +5295,28 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>336</v>
+        <v>134</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>339</v>
+        <v>137</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>340</v>
+        <v>143</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5271,7 +5365,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5283,23 +5377,584 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI35" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AJ35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM34">
+  <autoFilter ref="A1:AM39">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5309,7 +5964,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI33">
+  <conditionalFormatting sqref="A2:AI38">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16T04:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:34:30+00:00</t>
+    <t>2022-09-16T06:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T06:11:11+00:00</t>
+    <t>2022-09-16T07:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:34:37+00:00</t>
+    <t>2022-09-16T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
